--- a/BANVT (TRY).xlsx
+++ b/BANVT (TRY).xlsx
@@ -6353,9 +6353,6 @@
       <c r="E3">
         <v>39552690971.27572</v>
       </c>
-      <c r="F3">
-        <v>30061125493.328117</v>
-      </c>
       <c r="G3">
         <v>20168545221.97415</v>
       </c>
@@ -6468,6 +6465,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>31422711981</v>
+      </c>
       <c r="C5">
         <v>21142354644.191307</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>47905305541.87047</v>
       </c>
       <c r="F5">
-        <v>35674195711.89036</v>
+        <v>35674195712</v>
       </c>
       <c r="G5">
         <v>12773572258.664564</v>
@@ -6512,6 +6512,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>1850556876</v>
+      </c>
       <c r="C6">
         <v>1298221645.6788616</v>
       </c>
@@ -6522,7 +6525,7 @@
         <v>4189540656.1946774</v>
       </c>
       <c r="F6">
-        <v>3719011630.443654</v>
+        <v>3719011630</v>
       </c>
       <c r="J6">
         <v>3762267259.322364</v>
@@ -6562,9 +6565,6 @@
       <c r="E7">
         <v>-30283225233.9024</v>
       </c>
-      <c r="F7">
-        <v>-22583922021.309708</v>
-      </c>
       <c r="G7">
         <v>-15097648243.53997</v>
       </c>
@@ -6684,9 +6684,6 @@
       <c r="E8">
         <v>9269465737.37332</v>
       </c>
-      <c r="F8">
-        <v>7477203472.018409</v>
-      </c>
       <c r="G8">
         <v>5070896978.434176</v>
       </c>
@@ -6843,9 +6840,6 @@
       </c>
       <c r="E13">
         <v>9269465737.37332</v>
-      </c>
-      <c r="F13">
-        <v>7477203472.018409</v>
       </c>
       <c r="G13">
         <v>5070896978.434176</v>
@@ -6967,9 +6961,6 @@
       <c r="E15">
         <v>-1395700973.6222014</v>
       </c>
-      <c r="F15">
-        <v>-693723518.8545938</v>
-      </c>
       <c r="G15">
         <v>-464652468.64862955</v>
       </c>
@@ -7089,9 +7080,6 @@
       <c r="E16">
         <v>-2364227716.993895</v>
       </c>
-      <c r="F16">
-        <v>-1712579000.7818983</v>
-      </c>
       <c r="G16">
         <v>-1124499852.0925026</v>
       </c>
@@ -7211,9 +7199,6 @@
       <c r="E17">
         <v>-1111525.649922706</v>
       </c>
-      <c r="F17">
-        <v>-873792.8968711407</v>
-      </c>
       <c r="G17">
         <v>-595920.5137865468</v>
       </c>
@@ -7333,9 +7318,6 @@
       <c r="E18">
         <v>1182330974.6048837</v>
       </c>
-      <c r="F18">
-        <v>973173031.6300553</v>
-      </c>
       <c r="G18">
         <v>539190862.915444</v>
       </c>
@@ -7455,9 +7437,6 @@
       <c r="E19">
         <v>-707350916.3877001</v>
       </c>
-      <c r="F19">
-        <v>-535582546.6026539</v>
-      </c>
       <c r="G19">
         <v>-356116707.5146274</v>
       </c>
@@ -7581,9 +7560,6 @@
       </c>
       <c r="E21">
         <v>5983405579.324483</v>
-      </c>
-      <c r="F21">
-        <v>5507617644.512446</v>
       </c>
       <c r="G21">
         <v>3664222892.580075</v>
@@ -7715,9 +7691,6 @@
       <c r="E25">
         <v>1699963.509660837</v>
       </c>
-      <c r="F25">
-        <v>441796.33629698836</v>
-      </c>
       <c r="I25">
         <v>174158957.4038013</v>
       </c>
@@ -7810,9 +7783,6 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
       <c r="G26">
         <v>-581773.8604228018</v>
       </c>
@@ -7952,9 +7922,6 @@
       </c>
       <c r="E33">
         <v>5985105542.834144</v>
-      </c>
-      <c r="F33">
-        <v>5508059440.8487425</v>
       </c>
       <c r="G33">
         <v>3663641118.719651</v>
@@ -8076,9 +8043,6 @@
       <c r="E35">
         <v>1405935649.1914995</v>
       </c>
-      <c r="F35">
-        <v>860469989.8089751</v>
-      </c>
       <c r="G35">
         <v>395344513.45210814</v>
       </c>
@@ -8198,9 +8162,6 @@
       <c r="E36">
         <v>-1708160518.8610978</v>
       </c>
-      <c r="F36">
-        <v>-1279751500.0026207</v>
-      </c>
       <c r="G36">
         <v>-804363479.0904888</v>
       </c>
@@ -8320,9 +8281,6 @@
       <c r="E37">
         <v>772093275.8253487</v>
       </c>
-      <c r="F37">
-        <v>842810075.5017023</v>
-      </c>
       <c r="G37">
         <v>784675129.7939714</v>
       </c>
@@ -8360,9 +8318,6 @@
       </c>
       <c r="E38">
         <v>6454973948.989894</v>
-      </c>
-      <c r="F38">
-        <v>5931588006.156799</v>
       </c>
       <c r="G38">
         <v>4039297282.875242</v>
@@ -8484,9 +8439,6 @@
       <c r="E40">
         <v>-1940664587.0167737</v>
       </c>
-      <c r="F40">
-        <v>-1476468488.2904968</v>
-      </c>
       <c r="G40">
         <v>-1260502792.5644572</v>
       </c>
@@ -8606,9 +8558,6 @@
       <c r="E41">
         <v>-1801836251.8898737</v>
       </c>
-      <c r="F41">
-        <v>-1252420875.8979323</v>
-      </c>
       <c r="G41">
         <v>-1249625450.5379925</v>
       </c>
@@ -8719,9 +8668,6 @@
       <c r="E42">
         <v>-138828335.12690023</v>
       </c>
-      <c r="F42">
-        <v>-224047612.39256424</v>
-      </c>
       <c r="G42">
         <v>-10877342.026464997</v>
       </c>
@@ -8841,9 +8787,6 @@
       <c r="E43">
         <v>4514309361.97312</v>
       </c>
-      <c r="F43">
-        <v>4455119517.866303</v>
-      </c>
       <c r="G43">
         <v>2778794490.3107853</v>
       </c>
@@ -8950,9 +8893,6 @@
     <row r="44">
       <c r="A44" t="str">
         <v xml:space="preserve">    Durdurulan Faaliyetler Dönem Karı/Zararı</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
       </c>
       <c r="I44">
         <v>-89375632.70223409</v>
@@ -8996,9 +8936,6 @@
       <c r="E46">
         <v>4514309361.97312</v>
       </c>
-      <c r="F46">
-        <v>4455119517.866303</v>
-      </c>
       <c r="G46">
         <v>2778794490.3107853</v>
       </c>
@@ -9118,9 +9055,6 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
       <c r="G47">
         <v>0</v>
       </c>
@@ -9221,9 +9155,6 @@
       </c>
       <c r="E48">
         <v>4514309361.97312</v>
-      </c>
-      <c r="F48">
-        <v>4455119517.866303</v>
       </c>
       <c r="G48">
         <v>2778794490.3107853</v>
@@ -9650,9 +9581,6 @@
       <c r="E3">
         <v>9491565478.275719</v>
       </c>
-      <c r="F3">
-        <v>9892580271.353966</v>
-      </c>
       <c r="G3">
         <v>10235869683.745564</v>
       </c>
@@ -9762,6 +9690,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>10280357336.808693</v>
+      </c>
       <c r="C5">
         <v>10703152616.89148</v>
       </c>
@@ -9769,7 +9700,7 @@
         <v>10439202027.299828</v>
       </c>
       <c r="F5">
-        <v>22900623453.225792</v>
+        <v>22900623453.335434</v>
       </c>
       <c r="G5">
         <v>2291480483.9915466</v>
@@ -9797,6 +9728,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>552335230.3211384</v>
+      </c>
       <c r="C6">
         <v>679385812.3419993</v>
       </c>
@@ -9835,9 +9769,6 @@
       <c r="E7">
         <v>-7699303212.902401</v>
       </c>
-      <c r="F7">
-        <v>-7486273777.769737</v>
-      </c>
       <c r="G7">
         <v>-7225639797.566677</v>
       </c>
@@ -9954,9 +9885,6 @@
       <c r="E8">
         <v>1792262265.3733196</v>
       </c>
-      <c r="F8">
-        <v>2406306493.5842323</v>
-      </c>
       <c r="G8">
         <v>3010229886.1788826</v>
       </c>
@@ -10092,9 +10020,6 @@
       </c>
       <c r="E13">
         <v>1792262265.3733196</v>
-      </c>
-      <c r="F13">
-        <v>2406306493.5842323</v>
       </c>
       <c r="G13">
         <v>3010229886.1788826</v>
@@ -10213,9 +10138,6 @@
       <c r="E15">
         <v>-701977454.6222014</v>
       </c>
-      <c r="F15">
-        <v>-229071050.2059642</v>
-      </c>
       <c r="G15">
         <v>-195719294.82348472</v>
       </c>
@@ -10332,9 +10254,6 @@
       <c r="E16">
         <v>-651648715.993895</v>
       </c>
-      <c r="F16">
-        <v>-588079148.6893957</v>
-      </c>
       <c r="G16">
         <v>-537939007.4984932</v>
       </c>
@@ -10451,9 +10370,6 @@
       <c r="E17">
         <v>-237732.64992270595</v>
       </c>
-      <c r="F17">
-        <v>-277872.3830845939</v>
-      </c>
       <c r="G17">
         <v>-247662.25479349284</v>
       </c>
@@ -10570,9 +10486,6 @@
       <c r="E18">
         <v>209157942.60488367</v>
       </c>
-      <c r="F18">
-        <v>433982168.7146113</v>
-      </c>
       <c r="G18">
         <v>254438105.40452468</v>
       </c>
@@ -10689,9 +10602,6 @@
       <c r="E19">
         <v>-171768369.38770008</v>
       </c>
-      <c r="F19">
-        <v>-179465839.08802652</v>
-      </c>
       <c r="G19">
         <v>-78273395.31396258</v>
       </c>
@@ -10812,9 +10722,6 @@
       </c>
       <c r="E21">
         <v>475787935.3244829</v>
-      </c>
-      <c r="F21">
-        <v>1843394751.9323716</v>
       </c>
       <c r="G21">
         <v>2452488631.6926737</v>
@@ -11029,9 +10936,6 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="F26">
-        <v>581773.8604228018</v>
-      </c>
       <c r="I26">
         <v>0</v>
       </c>
@@ -11156,9 +11060,6 @@
       </c>
       <c r="E33">
         <v>477046102.83414364</v>
-      </c>
-      <c r="F33">
-        <v>1844418322.1290913</v>
       </c>
       <c r="G33">
         <v>2452488631.6926727</v>
@@ -11277,9 +11178,6 @@
       <c r="E35">
         <v>545465659.1914995</v>
       </c>
-      <c r="F35">
-        <v>465125476.35686696</v>
-      </c>
       <c r="G35">
         <v>312230829.9461818</v>
       </c>
@@ -11396,9 +11294,6 @@
       <c r="E36">
         <v>-428409018.8610978</v>
       </c>
-      <c r="F36">
-        <v>-475388020.9121319</v>
-      </c>
       <c r="G36">
         <v>-476142430.1633257</v>
       </c>
@@ -11515,9 +11410,6 @@
       <c r="E37">
         <v>-70716800.17465127</v>
       </c>
-      <c r="F37">
-        <v>58134945.70773089</v>
-      </c>
       <c r="G37">
         <v>259299998.31207824</v>
       </c>
@@ -11552,9 +11444,6 @@
       </c>
       <c r="E38">
         <v>523385942.9898939</v>
-      </c>
-      <c r="F38">
-        <v>1892290723.281557</v>
       </c>
       <c r="G38">
         <v>2547877029.7876077</v>
@@ -11673,9 +11562,6 @@
       <c r="E40">
         <v>-464196099.0167737</v>
       </c>
-      <c r="F40">
-        <v>-215965695.72603965</v>
-      </c>
       <c r="G40">
         <v>-818055007.727589</v>
       </c>
@@ -11792,9 +11678,6 @@
       <c r="E41">
         <v>-549415375.8898737</v>
       </c>
-      <c r="F41">
-        <v>-2795425.3599398136</v>
-      </c>
       <c r="G41">
         <v>-740174919.5752494</v>
       </c>
@@ -11902,9 +11785,6 @@
       <c r="E42">
         <v>85219276.87309977</v>
       </c>
-      <c r="F42">
-        <v>-213170270.36609924</v>
-      </c>
       <c r="G42">
         <v>-77880088.15233973</v>
       </c>
@@ -12020,9 +11900,6 @@
       </c>
       <c r="E43">
         <v>59189843.973119736</v>
-      </c>
-      <c r="F43">
-        <v>1676325027.5555182</v>
       </c>
       <c r="G43">
         <v>1729822022.060019</v>
@@ -12167,9 +12044,6 @@
       <c r="E46">
         <v>59189843.973119736</v>
       </c>
-      <c r="F46">
-        <v>1676325027.5555182</v>
-      </c>
       <c r="G46">
         <v>1729822022.060019</v>
       </c>
@@ -12286,9 +12160,6 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
       <c r="I47">
         <v>0</v>
       </c>
@@ -12380,9 +12251,6 @@
       </c>
       <c r="E48">
         <v>59189843.973119736</v>
-      </c>
-      <c r="F48">
-        <v>1676325027.5555182</v>
       </c>
       <c r="G48">
         <v>1729822022.060019</v>
@@ -12803,9 +12671,6 @@
       <c r="E3">
         <v>39552690971.27572</v>
       </c>
-      <c r="F3">
-        <v>39858841520.18982</v>
-      </c>
       <c r="G3">
         <v>39648000289.65686</v>
       </c>
@@ -12952,9 +12817,6 @@
       <c r="E7">
         <v>-30283225233.9024</v>
       </c>
-      <c r="F7">
-        <v>-30846333427.63807</v>
-      </c>
       <c r="G7">
         <v>-31875728597.011284</v>
       </c>
@@ -13056,9 +12918,6 @@
       <c r="E8">
         <v>9269465737.37332</v>
       </c>
-      <c r="F8">
-        <v>9012508092.551756</v>
-      </c>
       <c r="G8">
         <v>7772271692.645569</v>
       </c>
@@ -13197,9 +13056,6 @@
       </c>
       <c r="E13">
         <v>9269465737.37332</v>
-      </c>
-      <c r="F13">
-        <v>9012508092.551756</v>
       </c>
       <c r="G13">
         <v>7772271692.645569</v>
@@ -13303,9 +13159,6 @@
       <c r="E15">
         <v>-1395700973.6222014</v>
       </c>
-      <c r="F15">
-        <v>-978658134.8012607</v>
-      </c>
       <c r="G15">
         <v>-892921499.8183002</v>
       </c>
@@ -13407,9 +13260,6 @@
       <c r="E16">
         <v>-2364227716.993895</v>
       </c>
-      <c r="F16">
-        <v>-2311928677.468154</v>
-      </c>
       <c r="G16">
         <v>-2263276165.372349</v>
       </c>
@@ -13511,9 +13361,6 @@
       <c r="E17">
         <v>-1111525.649922706</v>
       </c>
-      <c r="F17">
-        <v>-998898.0858628227</v>
-      </c>
       <c r="G17">
         <v>-992577.0579113973</v>
       </c>
@@ -13615,9 +13462,6 @@
       <c r="E18">
         <v>1182330974.6048837</v>
       </c>
-      <c r="F18">
-        <v>1192871266.6719418</v>
-      </c>
       <c r="G18">
         <v>1807570472.0131664</v>
       </c>
@@ -13719,9 +13563,6 @@
       <c r="E19">
         <v>-707350916.3877001</v>
       </c>
-      <c r="F19">
-        <v>-893179739.9994702</v>
-      </c>
       <c r="G19">
         <v>-1478316514.233279</v>
       </c>
@@ -13827,9 +13668,6 @@
       </c>
       <c r="E21">
         <v>5983405579.324483</v>
-      </c>
-      <c r="F21">
-        <v>6020613908.868949</v>
       </c>
       <c r="G21">
         <v>4944335408.176896</v>
@@ -13943,9 +13781,6 @@
       <c r="E25">
         <v>1699963.509660837</v>
       </c>
-      <c r="F25">
-        <v>-20144988.06749903</v>
-      </c>
       <c r="I25">
         <v>174158957.4038013</v>
       </c>
@@ -14002,9 +13837,6 @@
       <c r="A26" t="str">
         <v xml:space="preserve">    Yatırım Faaliyetlerinden Giderler (-)</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
       <c r="G26">
         <v>-556790.731206533</v>
       </c>
@@ -14126,9 +13958,6 @@
       </c>
       <c r="E33">
         <v>5985105542.834144</v>
-      </c>
-      <c r="F33">
-        <v>6000468920.801449</v>
       </c>
       <c r="G33">
         <v>5085864054.115179</v>
@@ -14232,9 +14061,6 @@
       <c r="E35">
         <v>1405935649.1914995</v>
       </c>
-      <c r="F35">
-        <v>1037883075.538203</v>
-      </c>
       <c r="G35">
         <v>255727233.72604728</v>
       </c>
@@ -14336,9 +14162,6 @@
       <c r="E36">
         <v>-1708160518.8610978</v>
       </c>
-      <c r="F36">
-        <v>-2005368620.689481</v>
-      </c>
       <c r="G36">
         <v>-1964838395.2876167</v>
       </c>
@@ -14440,9 +14263,6 @@
       <c r="E37">
         <v>772093275.8253487</v>
       </c>
-      <c r="F37">
-        <v>1648979152.9236903</v>
-      </c>
       <c r="G37">
         <v>2998793742.1830497</v>
       </c>
@@ -14471,9 +14291,6 @@
       </c>
       <c r="E38">
         <v>6454973948.989894</v>
-      </c>
-      <c r="F38">
-        <v>6681962528.573862</v>
       </c>
       <c r="G38">
         <v>6375546634.73666</v>
@@ -14577,9 +14394,6 @@
       <c r="E40">
         <v>-1940664587.0167737</v>
       </c>
-      <c r="F40">
-        <v>-1691030300.8221617</v>
-      </c>
       <c r="G40">
         <v>-2073180913.7098863</v>
       </c>
@@ -14681,9 +14495,6 @@
       <c r="E41">
         <v>-1801836251.8898737</v>
       </c>
-      <c r="F41">
-        <v>-1704470029.561702</v>
-      </c>
       <c r="I41">
         <v>-763655168.2384127</v>
       </c>
@@ -14776,9 +14587,6 @@
       <c r="E42">
         <v>-138828335.12690023</v>
       </c>
-      <c r="F42">
-        <v>13439728.739540488</v>
-      </c>
       <c r="G42">
         <v>-59900294.93348142</v>
       </c>
@@ -14880,9 +14688,6 @@
       <c r="E43">
         <v>4514309361.97312</v>
       </c>
-      <c r="F43">
-        <v>4990932227.7517</v>
-      </c>
       <c r="G43">
         <v>4302365721.0267725</v>
       </c>
@@ -14971,9 +14776,6 @@
     <row r="44">
       <c r="A44" t="str">
         <v xml:space="preserve">    Durdurulan Faaliyetler Dönem Karı/Zararı</v>
-      </c>
-      <c r="F44">
-        <v>-24475017.116673388</v>
       </c>
       <c r="I44">
         <v>-89375632.70223409</v>
@@ -14999,9 +14801,6 @@
       <c r="E46">
         <v>4514309361.97312</v>
       </c>
-      <c r="F46">
-        <v>4966457210.635027</v>
-      </c>
       <c r="G46">
         <v>4309312829.028814</v>
       </c>
@@ -15103,9 +14902,6 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
       <c r="I47">
         <v>0</v>
       </c>
@@ -15185,9 +14981,6 @@
       </c>
       <c r="E48">
         <v>4514309361.97312</v>
-      </c>
-      <c r="F48">
-        <v>4966457210.635027</v>
       </c>
       <c r="G48">
         <v>4309312829.028814</v>
